--- a/doc/Research/life-events, research.xlsx
+++ b/doc/Research/life-events, research.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Youss\source\repos\simulation\doc\Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6273E281-A161-4B44-9E6C-BC6938A7CE94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{31402015-21A0-480F-BD79-C8BCE9DB52D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
@@ -12542,16 +12542,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>233361</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>119061</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>328611</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>147636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>219074</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12578,16 +12578,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>223836</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>319086</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -28976,7 +28976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B7"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
@@ -29036,8 +29036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="X30" sqref="X30"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
